--- a/data/1.abstracting/25_12_01_deduplicated_processed.xlsx
+++ b/data/1.abstracting/25_12_01_deduplicated_processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/1.abstracting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBCA7BC-2F34-455D-9B98-6A6A22C866BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BEBCA7BC-2F34-455D-9B98-6A6A22C866BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83BB76B5-6EAC-46AF-B340-38451DD99ADF}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="1845" windowWidth="21600" windowHeight="11175" xr2:uid="{34B527EB-0298-4C22-A7E7-A152B412BE1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34B527EB-0298-4C22-A7E7-A152B412BE1E}"/>
   </bookViews>
   <sheets>
     <sheet name="25_12_01_deduplicated_processed" sheetId="1" r:id="rId1"/>
@@ -956,9 +956,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
